--- a/forms.xlsx
+++ b/forms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>label</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>sudo_label</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -469,6 +474,11 @@
           <t>cv</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>login</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -487,6 +497,11 @@
           <t>first name</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>first name</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -505,6 +520,11 @@
           <t>last name</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>transcript</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -524,6 +544,11 @@
           <t>email</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -542,6 +567,11 @@
           <t>phone number</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>phone number</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -560,6 +590,11 @@
           <t>available from</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>available from</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -574,6 +609,11 @@
         </is>
       </c>
       <c r="C8" t="inlineStr">
+        <is>
+          <t>github</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>github</t>
         </is>
@@ -606,6 +646,11 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>cv</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -622,6 +667,11 @@
       <c r="C10" t="inlineStr">
         <is>
           <t>privacy</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>twitter</t>
         </is>
       </c>
     </row>
@@ -644,6 +694,11 @@
           <t>submit</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>submit</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -663,9 +718,18 @@
           <t>email</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>cv</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>&lt;button type="button"&gt;CV * &lt;/button&gt;</t>
@@ -676,6 +740,7 @@
           <t>cv</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -694,6 +759,7 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -712,6 +778,7 @@
           <t>submit</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -730,6 +797,7 @@
           <t>phone number</t>
         </is>
       </c>
+      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -748,6 +816,7 @@
           <t>submit</t>
         </is>
       </c>
+      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -768,6 +837,7 @@
           <t>search</t>
         </is>
       </c>
+      <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -786,6 +856,7 @@
           <t>country</t>
         </is>
       </c>
+      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -804,6 +875,7 @@
           <t>search</t>
         </is>
       </c>
+      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -822,6 +894,7 @@
           <t>search</t>
         </is>
       </c>
+      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -840,6 +913,7 @@
           <t>country</t>
         </is>
       </c>
+      <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -858,6 +932,7 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -876,6 +951,7 @@
           <t>phone number</t>
         </is>
       </c>
+      <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -894,6 +970,7 @@
           <t>sex</t>
         </is>
       </c>
+      <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -914,6 +991,7 @@
           <t>last name</t>
         </is>
       </c>
+      <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -934,6 +1012,7 @@
           <t>zip</t>
         </is>
       </c>
+      <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -953,6 +1032,7 @@
           <t>country</t>
         </is>
       </c>
+      <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -976,6 +1056,7 @@
           <t>cv</t>
         </is>
       </c>
+      <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -997,6 +1078,7 @@
           <t>cover letter</t>
         </is>
       </c>
+      <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1016,6 +1098,7 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1038,6 +1121,7 @@
           <t>first name</t>
         </is>
       </c>
+      <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1057,6 +1141,7 @@
           <t>phone number</t>
         </is>
       </c>
+      <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1075,6 +1160,7 @@
           <t>linkedin</t>
         </is>
       </c>
+      <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1093,6 +1179,7 @@
           <t>sex</t>
         </is>
       </c>
+      <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1111,6 +1198,7 @@
           <t>visa</t>
         </is>
       </c>
+      <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1131,6 +1219,7 @@
           <t>cv</t>
         </is>
       </c>
+      <c r="D37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1150,6 +1239,7 @@
           <t>phone number</t>
         </is>
       </c>
+      <c r="D38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1168,6 +1258,7 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1186,6 +1277,7 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1204,6 +1296,7 @@
           <t>linkedin</t>
         </is>
       </c>
+      <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1222,6 +1315,7 @@
           <t>country</t>
         </is>
       </c>
+      <c r="D42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1241,6 +1335,7 @@
           <t>email</t>
         </is>
       </c>
+      <c r="D43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1260,6 +1355,7 @@
           <t>phone number</t>
         </is>
       </c>
+      <c r="D44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1279,6 +1375,7 @@
           <t>submit</t>
         </is>
       </c>
+      <c r="D45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1297,6 +1394,7 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1315,6 +1413,7 @@
           <t>search</t>
         </is>
       </c>
+      <c r="D47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1333,6 +1432,7 @@
           <t>phone number</t>
         </is>
       </c>
+      <c r="D48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1354,6 +1454,7 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1377,6 +1478,7 @@
           <t>sex</t>
         </is>
       </c>
+      <c r="D50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1395,6 +1497,7 @@
           <t>submit</t>
         </is>
       </c>
+      <c r="D51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1413,6 +1516,7 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1431,6 +1535,7 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1449,6 +1554,7 @@
           <t>cv</t>
         </is>
       </c>
+      <c r="D54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1467,6 +1573,7 @@
           <t>cv</t>
         </is>
       </c>
+      <c r="D55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1486,6 +1593,7 @@
           <t>cv</t>
         </is>
       </c>
+      <c r="D56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1506,6 +1614,7 @@
           <t>cover letter</t>
         </is>
       </c>
+      <c r="D57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1526,6 +1635,7 @@
           <t>xing</t>
         </is>
       </c>
+      <c r="D58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1545,6 +1655,7 @@
           <t>submit</t>
         </is>
       </c>
+      <c r="D59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1564,6 +1675,7 @@
           <t>phone number</t>
         </is>
       </c>
+      <c r="D60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1584,6 +1696,7 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1602,6 +1715,7 @@
           <t>submit</t>
         </is>
       </c>
+      <c r="D62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1626,6 +1740,7 @@
           <t>submit</t>
         </is>
       </c>
+      <c r="D63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1644,6 +1759,7 @@
           <t>search</t>
         </is>
       </c>
+      <c r="D64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1662,6 +1778,7 @@
           <t>github</t>
         </is>
       </c>
+      <c r="D65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1683,6 +1800,7 @@
           <t>phone number</t>
         </is>
       </c>
+      <c r="D66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1702,6 +1820,7 @@
           <t>cover letter</t>
         </is>
       </c>
+      <c r="D67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1721,6 +1840,7 @@
           <t>country</t>
         </is>
       </c>
+      <c r="D68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1739,6 +1859,7 @@
           <t>country</t>
         </is>
       </c>
+      <c r="D69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1757,6 +1878,7 @@
           <t>country</t>
         </is>
       </c>
+      <c r="D70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1776,6 +1898,7 @@
           <t>email</t>
         </is>
       </c>
+      <c r="D71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1794,6 +1917,7 @@
           <t>submit</t>
         </is>
       </c>
+      <c r="D72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1812,6 +1936,7 @@
           <t>email</t>
         </is>
       </c>
+      <c r="D73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1831,6 +1956,7 @@
           <t>phone number</t>
         </is>
       </c>
+      <c r="D74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1849,6 +1975,7 @@
           <t>first name</t>
         </is>
       </c>
+      <c r="D75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1867,6 +1994,7 @@
           <t>last name</t>
         </is>
       </c>
+      <c r="D76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1885,6 +2013,7 @@
           <t>sex</t>
         </is>
       </c>
+      <c r="D77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1903,6 +2032,7 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1923,6 +2053,7 @@
           <t>submit</t>
         </is>
       </c>
+      <c r="D79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1942,6 +2073,7 @@
           <t>phone number</t>
         </is>
       </c>
+      <c r="D80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1962,6 +2094,7 @@
           <t>phone number</t>
         </is>
       </c>
+      <c r="D81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1982,6 +2115,7 @@
           <t>submit</t>
         </is>
       </c>
+      <c r="D82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2001,6 +2135,7 @@
           <t>email</t>
         </is>
       </c>
+      <c r="D83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2020,6 +2155,7 @@
           <t>phone number</t>
         </is>
       </c>
+      <c r="D84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2039,6 +2175,7 @@
           <t>submit</t>
         </is>
       </c>
+      <c r="D85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2057,6 +2194,7 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2075,6 +2213,7 @@
           <t>country</t>
         </is>
       </c>
+      <c r="D87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2117,6 +2256,7 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2135,6 +2275,7 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2153,6 +2294,7 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2173,6 +2315,7 @@
           <t>cv</t>
         </is>
       </c>
+      <c r="D91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2192,6 +2335,7 @@
           <t>search</t>
         </is>
       </c>
+      <c r="D92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2210,6 +2354,7 @@
           <t>country</t>
         </is>
       </c>
+      <c r="D93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2228,6 +2373,7 @@
           <t>last name</t>
         </is>
       </c>
+      <c r="D94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2248,6 +2394,7 @@
           <t>submit</t>
         </is>
       </c>
+      <c r="D95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2268,6 +2415,7 @@
           <t>cv</t>
         </is>
       </c>
+      <c r="D96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2287,6 +2435,7 @@
           <t>cover letter</t>
         </is>
       </c>
+      <c r="D97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2305,6 +2454,7 @@
           <t>github</t>
         </is>
       </c>
+      <c r="D98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2323,6 +2473,7 @@
           <t>newsletter</t>
         </is>
       </c>
+      <c r="D99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2342,6 +2493,7 @@
           <t>submit</t>
         </is>
       </c>
+      <c r="D100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2362,6 +2514,7 @@
           <t>cv</t>
         </is>
       </c>
+      <c r="D101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
